--- a/ChatConfig.xlsx
+++ b/ChatConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="chat" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="172">
   <si>
     <t>id</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Snorlax</t>
   </si>
   <si>
-    <t>Goddess</t>
+    <t>Sothis</t>
   </si>
   <si>
     <t>Geralt</t>
@@ -67,7 +67,7 @@
     <t>opening-start-1</t>
   </si>
   <si>
-    <t>Click the ground to move</t>
+    <t>Click the ground to move.</t>
   </si>
   <si>
     <t>opening-tuto-1</t>
@@ -94,13 +94,13 @@
     <t>opening-tuto-4</t>
   </si>
   <si>
-    <t>OK</t>
+    <t>OK.</t>
   </si>
   <si>
     <t>opening-tuto-5</t>
   </si>
   <si>
-    <t>I will guide you when you need</t>
+    <t>I will guide you when you need.</t>
   </si>
   <si>
     <t>opening-tuto-6</t>
@@ -127,13 +127,13 @@
     <t>I decided to...</t>
   </si>
   <si>
-    <t>Pat it slightly</t>
+    <t>Pat it slightly.</t>
   </si>
   <si>
     <t>will lead to next interaction</t>
   </si>
   <si>
-    <t>leave it alone</t>
+    <t>leave it alone.</t>
   </si>
   <si>
     <t>nothing will happen</t>
@@ -142,24 +142,13 @@
     <t>kabi-interact-2</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Slap </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>it</t>
-    </r>
+    <t>Slap it.</t>
   </si>
   <si>
     <t>kabi-interact-3</t>
   </si>
   <si>
-    <t>Kick it</t>
+    <t>Kick it.</t>
   </si>
   <si>
     <t>kabi-interact-1-shout</t>
@@ -195,13 +184,939 @@
     <t>kabi-gotFlute-1</t>
   </si>
   <si>
-    <t>Click the item, then click the monster to use the item</t>
+    <t>Click the item, then click the monster to use the item.</t>
   </si>
   <si>
     <t>kabi-gotFlute-2</t>
   </si>
   <si>
     <t>Location:David's Pokémon’s backyard</t>
+  </si>
+  <si>
+    <t>backyard-place-1</t>
+  </si>
+  <si>
+    <r>
+      <t>Click a plant, and then click on the ground</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tile to place</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>it.</t>
+    </r>
+  </si>
+  <si>
+    <t>backyard-interact-1</t>
+  </si>
+  <si>
+    <t>You failed, whether to use Divine Pulse(Retry).</t>
+  </si>
+  <si>
+    <t>when failed the game</t>
+  </si>
+  <si>
+    <t>Yes.</t>
+  </si>
+  <si>
+    <t>Restart the combat</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Game end</t>
+  </si>
+  <si>
+    <t>backyard-interact-NO</t>
+  </si>
+  <si>
+    <t>Never give up!</t>
+  </si>
+  <si>
+    <t>Location:Velen</t>
+  </si>
+  <si>
+    <t>Velen-jump-1</t>
+  </si>
+  <si>
+    <t>Hey, do you want to play Gwent? This guy was beaten by me just now.</t>
+  </si>
+  <si>
+    <t>Velen-jump-2</t>
+  </si>
+  <si>
+    <t>Don't listen to him, he cheats.</t>
+  </si>
+  <si>
+    <t>Velen-jump-3</t>
+  </si>
+  <si>
+    <t>Anyway, I won the Gwent. Tell me, what's next?</t>
+  </si>
+  <si>
+    <t>Velen-jump-4</t>
+  </si>
+  <si>
+    <t>We've played so many rounds, but now we're in a draw. We're really neck and neck.</t>
+  </si>
+  <si>
+    <t>Velen-jump-5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I don't </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>care</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. I must </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>beat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> you</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Velen-interact-1</t>
+  </si>
+  <si>
+    <r>
+      <t>Hello young lady, we don't know what to play next, could you give us</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>an idea?</t>
+    </r>
+  </si>
+  <si>
+    <t>Swordsmanship race</t>
+  </si>
+  <si>
+    <t>Running race</t>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>umping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>race</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Velen-interact-1-play</t>
+  </si>
+  <si>
+    <r>
+      <t>No, If it's a swordsmanship race,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>he will win.</t>
+    </r>
+  </si>
+  <si>
+    <t>Haha, I give you one more chance.</t>
+  </si>
+  <si>
+    <t>Velen-interact-2-play</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">If it's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a running race</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>he</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>will win</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Velen-interact-3-play</t>
+  </si>
+  <si>
+    <t>Sounds good.</t>
+  </si>
+  <si>
+    <t>I agree.</t>
+  </si>
+  <si>
+    <t>The two teleport to the starting point</t>
+  </si>
+  <si>
+    <t>Velen-jump-6</t>
+  </si>
+  <si>
+    <t>Let's bet a golden token, Who do you think will win?</t>
+  </si>
+  <si>
+    <t>Velen-jump-7</t>
+  </si>
+  <si>
+    <t>Choose the token then tap on a hero to bet him win.</t>
+  </si>
+  <si>
+    <t>Velen-won-1</t>
+  </si>
+  <si>
+    <t>Well, I admit you won.</t>
+  </si>
+  <si>
+    <t>Velen-won-2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thank you for your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>support</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, madam, it's time for me to go back to Florence.</t>
+    </r>
+  </si>
+  <si>
+    <t>Velen-won-3</t>
+  </si>
+  <si>
+    <t>It's time for me to go to Kaer Morhen too.</t>
+  </si>
+  <si>
+    <t>Velen-won-4</t>
+  </si>
+  <si>
+    <t>Goodbye!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Location: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The lands between</t>
+    </r>
+  </si>
+  <si>
+    <t>Melina-accord-1</t>
+  </si>
+  <si>
+    <t>How could tarnished come here.</t>
+  </si>
+  <si>
+    <t>Melina-accord-2</t>
+  </si>
+  <si>
+    <t>I offer you an accord.</t>
+  </si>
+  <si>
+    <t>Melina-accord-3</t>
+  </si>
+  <si>
+    <t>I am Melina.</t>
+  </si>
+  <si>
+    <t>Melina-accord-4</t>
+  </si>
+  <si>
+    <t>Did you see this Erdtree? This is my hometown.</t>
+  </si>
+  <si>
+    <t>Melina-accord-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was born at the foot of the Erdtree. Where mother gave me my purpose. </t>
+  </si>
+  <si>
+    <t>Melina-accord-6</t>
+  </si>
+  <si>
+    <t>I must set the Erdtree aflame.</t>
+  </si>
+  <si>
+    <t>Melina-accord-7</t>
+  </si>
+  <si>
+    <t>I came back here after a lot of hard work, but I regret.</t>
+  </si>
+  <si>
+    <t>Melina-accord-8</t>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I fear death, I don't want to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>burn myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>die.</t>
+    </r>
+  </si>
+  <si>
+    <t>Melina-accord-9</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Can you help me burn the Erdtree? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n return,</t>
+    </r>
+  </si>
+  <si>
+    <t>Melina-accord-10</t>
+  </si>
+  <si>
+    <r>
+      <t>I will guide you. Down the path to becom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Elden Lord.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Three fingers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>appear</t>
+    </r>
+  </si>
+  <si>
+    <t>flame-coin-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I am chaos incarnate, the opposite of the Golden order.</t>
+  </si>
+  <si>
+    <t>flame-coin-2</t>
+  </si>
+  <si>
+    <r>
+      <t>Torrent,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>despair,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>affliction.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Every sin. Every curse. Every one, born of the mistake.</t>
+    </r>
+  </si>
+  <si>
+    <t>flame-coin-3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> And so, what was borrowed must be returned. Melt it away,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>with the yellow chaos frame.</t>
+    </r>
+  </si>
+  <si>
+    <t>flame-coin-4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Until all is One again. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>You coins should also become void again</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>flame-coin-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How to do? Should I put off my clothes?</t>
+  </si>
+  <si>
+    <t>flame-coin-6</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>give me 3 gold coins, and I will give you Frenzied Flame.</t>
+    </r>
+  </si>
+  <si>
+    <t>flame-coin-7</t>
+  </si>
+  <si>
+    <t>That way you'll be the tinder, and you don’t have to let that girl get burned.</t>
+  </si>
+  <si>
+    <t>flame-coin-8</t>
+  </si>
+  <si>
+    <r>
+      <t>Become the Lord of chaos,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>burn yourself and melt that E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dtree.</t>
+    </r>
+  </si>
+  <si>
+    <t>Erdtree-burn-1</t>
+  </si>
+  <si>
+    <t>You have been blessed with Frenzied Flame? for me?</t>
+  </si>
+  <si>
+    <t>Erdtree-burn-2</t>
+  </si>
+  <si>
+    <t>Erdtree-burn-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It is not to be meddled with. you deny the existence of life.</t>
+  </si>
+  <si>
+    <t>Erdtree-burn-4</t>
+  </si>
+  <si>
+    <t>No. I just gave 3 coins.</t>
+  </si>
+  <si>
+    <t>Erdtree-burn-5</t>
+  </si>
+  <si>
+    <r>
+      <t>This world will become ruin and get mired in torment and despair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Erdtree-burn-6</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Erdtree-burn-7</t>
+  </si>
+  <si>
+    <t>The Lord of Frenzied Flame is no lord at all.</t>
+  </si>
+  <si>
+    <t>Erdtree-burn-8</t>
+  </si>
+  <si>
+    <t>Erdtree-burn-9</t>
+  </si>
+  <si>
+    <t>When the land they preside over is lifeless.</t>
+  </si>
+  <si>
+    <t>Erdtree-burn-10</t>
+  </si>
+  <si>
+    <t>Okay.</t>
+  </si>
+  <si>
+    <t>Erdtree-burn-11</t>
+  </si>
+  <si>
+    <t>But this has nothing to do with me. As long as the Erdtree is burned, my purpose will be completed.</t>
+  </si>
+  <si>
+    <t>show tree on fire</t>
+  </si>
+  <si>
+    <t>Erdtree-burn-12</t>
+  </si>
+  <si>
+    <t>Everything is lost to me.</t>
+  </si>
+  <si>
+    <t>Erdtree-burn-13</t>
+  </si>
+  <si>
+    <r>
+      <t>Follow me</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, my only lord.</t>
+    </r>
+  </si>
+  <si>
+    <t>Erdtree-burn-14</t>
+  </si>
+  <si>
+    <t>You shall go to the outsider world and study Game Design with me.</t>
   </si>
 </sst>
 </file>
@@ -232,12 +1147,27 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,21 +1181,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -273,37 +1188,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,9 +1202,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,6 +1234,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -366,7 +1267,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,11 +1282,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="45">
     <fill>
@@ -455,7 +1369,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.05"/>
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,67 +1393,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,61 +1543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,44 +1559,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -666,6 +1580,43 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,6 +1660,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -728,42 +1703,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,10 +1715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,137 +1727,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -957,11 +1897,29 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1289,17 +2247,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="34.7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.7037037037037" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3796296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="81.3055555555556" style="2" customWidth="1"/>
     <col min="4" max="4" width="59" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
@@ -1352,12 +2310,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="2:2">
+    <row r="8" spans="2:2">
       <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="2:2">
+    <row r="9" spans="2:2">
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
@@ -1372,7 +2330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="4:4">
+    <row r="16" spans="4:4">
       <c r="D16" s="14" t="s">
         <v>15</v>
       </c>
@@ -1388,7 +2346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:4">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1402,7 +2360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:3">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1446,7 +2404,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:3">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1457,12 +2415,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="4:4">
+    <row r="25" spans="4:4">
       <c r="D25" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:3">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1495,7 +2453,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="2:4">
+    <row r="29" spans="2:4">
       <c r="B29" s="13" t="s">
         <v>14</v>
       </c>
@@ -1506,7 +2464,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="2:4">
+    <row r="30" spans="2:4">
       <c r="B30" s="13" t="s">
         <v>14</v>
       </c>
@@ -1528,7 +2486,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="2:4">
+    <row r="32" spans="2:4">
       <c r="B32" s="13" t="s">
         <v>14</v>
       </c>
@@ -1539,7 +2497,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="2:4">
+    <row r="33" spans="2:4">
       <c r="B33" s="13" t="s">
         <v>14</v>
       </c>
@@ -1561,7 +2519,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="2:4">
+    <row r="35" spans="2:4">
       <c r="B35" s="13" t="s">
         <v>14</v>
       </c>
@@ -1572,7 +2530,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="2:4">
+    <row r="36" spans="2:4">
       <c r="B36" s="13" t="s">
         <v>14</v>
       </c>
@@ -1641,7 +2599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:3">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
@@ -1663,12 +2621,674 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="4:4">
+    <row r="45" spans="4:4">
       <c r="D45" s="14" t="s">
         <v>58</v>
       </c>
     </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="19"/>
+      <c r="B74" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="20"/>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="C73:C74"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/ChatConfig.xlsx
+++ b/ChatConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="chat" sheetId="3" r:id="rId1"/>
@@ -118,7 +118,7 @@
     <t>kabi-meet-2</t>
   </si>
   <si>
-    <t>I block my way!</t>
+    <t>It blocks my way!</t>
   </si>
   <si>
     <t>kabi-interact-1</t>
@@ -154,19 +154,19 @@
     <t>kabi-interact-1-shout</t>
   </si>
   <si>
-    <t>roaw!!!</t>
+    <t>roaw!</t>
   </si>
   <si>
     <t>kabi-interact-2-shout</t>
   </si>
   <si>
-    <t>roaw!!!!</t>
+    <t>roaw!!roaw!!</t>
   </si>
   <si>
     <t>kabi-interact-3-shout</t>
   </si>
   <si>
-    <t>roaw!!!!roaw!!!!roaw!!!!</t>
+    <t>roaw!!!roaw!!!roaw!!!</t>
   </si>
   <si>
     <t>start earthquake</t>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Click a plant, and then click on the ground</t>
     </r>
     <r>
@@ -240,7 +246,7 @@
     <t>backyard-interact-1</t>
   </si>
   <si>
-    <t>You failed, whether to use Divine Pulse(Retry).</t>
+    <t>You failed, use Divine Pulse to retry?</t>
   </si>
   <si>
     <t>when failed the game</t>
@@ -295,6 +301,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">I don't </t>
     </r>
     <r>
@@ -366,6 +378,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Hello young lady, we don't know what to play next, could you give us</t>
     </r>
     <r>
@@ -395,6 +413,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>J</t>
     </r>
     <r>
@@ -439,6 +463,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>No, If it's a swordsmanship race,</t>
     </r>
     <r>
@@ -468,6 +498,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">No, </t>
     </r>
     <r>
@@ -578,6 +614,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Thank you for your </t>
     </r>
     <r>
@@ -613,6 +655,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Location: </t>
     </r>
     <r>
@@ -672,6 +720,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>N</t>
     </r>
     <r>
@@ -752,6 +806,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Can you help me burn the Erdtree? </t>
     </r>
     <r>
@@ -778,6 +838,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>I will guide you. Down the path to becom</t>
     </r>
     <r>
@@ -801,6 +867,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Three fingers</t>
     </r>
     <r>
@@ -833,6 +905,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Torrent,</t>
     </r>
     <r>
@@ -895,6 +973,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> And so, what was borrowed must be returned. Melt it away,</t>
     </r>
     <r>
@@ -921,6 +1005,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> Until all is One again. </t>
     </r>
     <r>
@@ -953,6 +1043,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">No, </t>
     </r>
     <r>
@@ -976,6 +1072,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Become the Lord of chaos,</t>
     </r>
     <r>
@@ -1041,6 +1143,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>This world will become ruin and get mired in torment and despair</t>
     </r>
     <r>
@@ -1100,6 +1208,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Follow me</t>
     </r>
     <r>
@@ -1124,8 +1238,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1158,8 +1272,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1167,7 +1282,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1175,6 +1290,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1202,9 +1324,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,26 +1355,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1267,7 +1389,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1280,14 +1402,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="黑体"/>
@@ -1375,13 +1489,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,13 +1609,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,37 +1657,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,109 +1669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,13 +1724,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1646,6 +1764,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1660,41 +1793,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1707,6 +1810,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1715,149 +1829,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1899,12 +2013,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -2249,15 +2357,15 @@
   <sheetPr/>
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="34.7037037037037" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3796296296296" style="2" customWidth="1"/>
-    <col min="3" max="3" width="81.3055555555556" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3833333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="81.3083333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="59" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
@@ -2310,12 +2418,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" ht="14.25" spans="2:2">
       <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" ht="14.25" spans="2:2">
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
@@ -2330,7 +2438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="4:4">
+    <row r="16" ht="14.25" spans="4:4">
       <c r="D16" s="14" t="s">
         <v>15</v>
       </c>
@@ -2346,7 +2454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" ht="14.25" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -2360,7 +2468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" ht="14.25" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -2404,7 +2512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" ht="14.25" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -2415,12 +2523,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" ht="14.25" spans="4:4">
       <c r="D25" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" ht="14.25" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -2453,7 +2561,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" ht="14.25" spans="2:4">
       <c r="B29" s="13" t="s">
         <v>14</v>
       </c>
@@ -2464,7 +2572,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" ht="14.25" spans="2:4">
       <c r="B30" s="13" t="s">
         <v>14</v>
       </c>
@@ -2486,7 +2594,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" ht="14.25" spans="2:4">
       <c r="B32" s="13" t="s">
         <v>14</v>
       </c>
@@ -2497,7 +2605,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" ht="14.25" spans="2:4">
       <c r="B33" s="13" t="s">
         <v>14</v>
       </c>
@@ -2519,7 +2627,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" ht="14.25" spans="2:4">
       <c r="B35" s="13" t="s">
         <v>14</v>
       </c>
@@ -2530,7 +2638,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" ht="14.25" spans="2:4">
       <c r="B36" s="13" t="s">
         <v>14</v>
       </c>
@@ -2599,7 +2707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" ht="14.25" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
@@ -2621,19 +2729,19 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" ht="14.25" spans="4:4">
       <c r="D45" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" ht="14.25" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2689,113 +2797,113 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" ht="14.25" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" ht="14.25" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" ht="14.25" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" ht="14.25" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" ht="14.25" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" ht="14.25" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" ht="14.25" spans="2:4">
       <c r="B59" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="14" t="s">
         <v>83</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" ht="14.25" spans="2:4">
       <c r="B60" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="14" t="s">
         <v>84</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" ht="14.25" spans="2:4">
       <c r="B61" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="14" t="s">
         <v>85</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" ht="14.25" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="14" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2807,14 +2915,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" ht="14.25" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="14" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2826,36 +2934,36 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" ht="14.25" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
+    <row r="67" ht="14.25" spans="2:4">
       <c r="B67" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" ht="14.25" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="14" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2870,74 +2978,74 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" ht="14.25" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" ht="14.25" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" ht="14.25" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="15" t="s">
         <v>105</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="16" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="19"/>
+      <c r="A74" s="17"/>
       <c r="B74" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="20"/>
-    </row>
-    <row r="76" spans="4:4">
-      <c r="D76" s="16" t="s">
+      <c r="C74" s="18"/>
+    </row>
+    <row r="76" ht="14.25" spans="4:4">
+      <c r="D76" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" ht="14.25" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" ht="14.25" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>110</v>
       </c>
@@ -2948,18 +3056,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" ht="14.25" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" ht="14.25" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>114</v>
       </c>
@@ -2970,7 +3078,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" ht="14.25" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>116</v>
       </c>
@@ -2981,7 +3089,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" ht="14.25" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>118</v>
       </c>
@@ -2992,295 +3100,295 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" ht="14.25" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" ht="14.25" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" ht="14.25" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" ht="14.25" spans="1:4">
       <c r="A86" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D86" s="14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" ht="14.25" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" ht="14.25" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" ht="14.25" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" ht="14.25" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" ht="14.25" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" ht="14.25" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C92" s="14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" ht="14.25" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" ht="14.25" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C94" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" ht="14.25" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="C95" s="14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" ht="14.25" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C96" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" ht="14.25" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C97" s="14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" ht="14.25" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" ht="14.25" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="16" t="s">
+      <c r="C99" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" ht="14.25" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="16" t="s">
+      <c r="C100" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" ht="14.25" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="16" t="s">
+      <c r="C101" s="14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" ht="14.25" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="16" t="s">
+      <c r="C102" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" ht="14.25" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" ht="14.25" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C104" s="16" t="s">
+      <c r="C104" s="14" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" ht="14.25" spans="1:4">
       <c r="A105" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B105" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="16" t="s">
+      <c r="C105" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D105" s="16" t="s">
+      <c r="D105" s="14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" ht="14.25" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="16" t="s">
+      <c r="C106" s="14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" ht="14.25" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="16" t="s">
+      <c r="C107" s="14" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" ht="14.25" spans="1:3">
       <c r="A108" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="C108" s="14" t="s">
         <v>171</v>
       </c>
     </row>

--- a/ChatConfig.xlsx
+++ b/ChatConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="chat" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="174">
   <si>
     <t>id</t>
   </si>
@@ -261,9 +261,6 @@
     <t>No.</t>
   </si>
   <si>
-    <t>Game end</t>
-  </si>
-  <si>
     <t>backyard-interact-NO</t>
   </si>
   <si>
@@ -300,50 +297,20 @@
     <t>Velen-jump-5</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">I don't </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>care</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">. I must </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>beat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> you</t>
+    <t>I don't care. I must beat you hard.</t>
+  </si>
+  <si>
+    <t>Velen-interact-1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Hello young lady, we don't know what to play next, could you give us</t>
     </r>
     <r>
       <rPr>
@@ -361,7 +328,175 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>hard</t>
+      <t>an idea?</t>
+    </r>
+  </si>
+  <si>
+    <t>Swordsmanship race</t>
+  </si>
+  <si>
+    <t>Running race</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>umping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>race</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Velen-interact-1-play1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>No, If it's a swordsmanship race,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>he will win.</t>
+    </r>
+  </si>
+  <si>
+    <t>Velen-interact-1-play2</t>
+  </si>
+  <si>
+    <t>Haha, I give you one more chance.</t>
+  </si>
+  <si>
+    <t>Velen-interact-2-play1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">No, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">If it's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a running race</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>he</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>will win</t>
     </r>
     <r>
       <rPr>
@@ -374,216 +509,16 @@
     </r>
   </si>
   <si>
-    <t>Velen-interact-1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Hello young lady, we don't know what to play next, could you give us</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>an idea?</t>
-    </r>
-  </si>
-  <si>
-    <t>Swordsmanship race</t>
-  </si>
-  <si>
-    <t>Running race</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>J</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>umping</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>race</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Velen-interact-1-play</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>No, If it's a swordsmanship race,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>he will win.</t>
-    </r>
-  </si>
-  <si>
-    <t>Haha, I give you one more chance.</t>
-  </si>
-  <si>
-    <t>Velen-interact-2-play</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">No, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">If it's </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>a running race</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>he</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>will win</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Velen-interact-3-play</t>
+    <t>Velen-interact-2-play2</t>
+  </si>
+  <si>
+    <t>Velen-interact-3-play1</t>
   </si>
   <si>
     <t>Sounds good.</t>
+  </si>
+  <si>
+    <t>Velen-interact-3-play2</t>
   </si>
   <si>
     <t>I agree.</t>
@@ -1238,10 +1173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1259,30 +1194,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1296,21 +1208,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1324,24 +1229,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1352,6 +1242,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1389,6 +1286,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1402,6 +1330,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="黑体"/>
@@ -1489,187 +1424,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1724,21 +1659,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1750,30 +1670,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1811,6 +1707,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1829,10 +1764,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1841,133 +1776,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2357,15 +2292,15 @@
   <sheetPr/>
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="34.7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3833333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="81.3083333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.7037037037037" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3796296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="81.3055555555556" style="2" customWidth="1"/>
     <col min="4" max="4" width="59" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
@@ -2418,12 +2353,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="2:2">
+    <row r="8" spans="2:2">
       <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="2:2">
+    <row r="9" spans="2:2">
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
@@ -2438,7 +2373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="4:4">
+    <row r="16" spans="4:4">
       <c r="D16" s="14" t="s">
         <v>15</v>
       </c>
@@ -2447,14 +2382,14 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>5</v>
+      <c r="B17" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:4">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -2468,7 +2403,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:3">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -2512,7 +2447,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:3">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -2523,12 +2458,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="4:4">
+    <row r="25" spans="4:4">
       <c r="D25" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:3">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -2561,7 +2496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="2:4">
+    <row r="29" spans="2:4">
       <c r="B29" s="13" t="s">
         <v>14</v>
       </c>
@@ -2572,7 +2507,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="2:4">
+    <row r="30" spans="2:4">
       <c r="B30" s="13" t="s">
         <v>14</v>
       </c>
@@ -2594,7 +2529,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="2:4">
+    <row r="32" spans="2:4">
       <c r="B32" s="13" t="s">
         <v>14</v>
       </c>
@@ -2605,7 +2540,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="2:4">
+    <row r="33" spans="2:4">
       <c r="B33" s="13" t="s">
         <v>14</v>
       </c>
@@ -2627,7 +2562,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="2:4">
+    <row r="35" spans="2:4">
       <c r="B35" s="13" t="s">
         <v>14</v>
       </c>
@@ -2638,7 +2573,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="2:4">
+    <row r="36" spans="2:4">
       <c r="B36" s="13" t="s">
         <v>14</v>
       </c>
@@ -2707,7 +2642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:3">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
@@ -2729,12 +2664,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="4:4">
+    <row r="45" spans="4:4">
       <c r="D45" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:3">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>59</v>
       </c>
@@ -2778,136 +2713,139 @@
         <v>66</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" spans="1:3">
-      <c r="A53" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" spans="1:3">
-      <c r="A54" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" spans="1:3">
-      <c r="A55" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C55" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" spans="1:3">
-      <c r="A56" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" spans="1:3">
-      <c r="A57" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C57" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" spans="1:3">
-      <c r="A58" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" spans="2:4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
       <c r="B59" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="2:4">
+    <row r="60" spans="2:4">
       <c r="B60" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="61" ht="14.25" spans="2:4">
+    <row r="61" spans="2:4">
       <c r="B61" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" ht="14.25" spans="1:3">
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C62" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="63" spans="2:3">
       <c r="B63" s="8" t="s">
         <v>9</v>
       </c>
@@ -2915,7 +2853,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" ht="14.25" spans="1:3">
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>89</v>
       </c>
@@ -2926,7 +2864,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="B65" s="9" t="s">
         <v>10</v>
       </c>
@@ -2934,92 +2875,95 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" ht="14.25" spans="1:3">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25" spans="2:4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="B67" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25" spans="1:3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25" spans="1:3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3029,226 +2973,226 @@
       </c>
       <c r="C74" s="18"/>
     </row>
-    <row r="76" ht="14.25" spans="4:4">
+    <row r="76" spans="4:4">
       <c r="D76" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" spans="1:3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25" spans="1:3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25" spans="1:3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" spans="1:3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" spans="1:3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25" spans="1:3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" spans="1:3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25" spans="1:3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25" spans="1:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" spans="1:4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87" ht="14.25" spans="1:3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="90" ht="14.25" spans="1:3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="91" ht="14.25" spans="1:3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25" spans="1:3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="93" ht="14.25" spans="1:3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="94" ht="14.25" spans="1:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="95" ht="14.25" spans="1:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="96" ht="14.25" spans="1:3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>5</v>
@@ -3257,139 +3201,139 @@
         <v>64</v>
       </c>
     </row>
-    <row r="97" ht="14.25" spans="1:3">
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="98" ht="14.25" spans="1:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="99" ht="14.25" spans="1:3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="100" ht="14.25" spans="1:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="101" ht="14.25" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="102" ht="14.25" spans="1:3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="103" ht="14.25" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="104" ht="14.25" spans="1:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="105" ht="14.25" spans="1:4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B105" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="106" ht="14.25" spans="1:3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="107" ht="14.25" spans="1:3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="108" ht="14.25" spans="1:3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/ChatConfig.xlsx
+++ b/ChatConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="chat" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="181">
   <si>
     <t>id</t>
   </si>
@@ -589,24 +589,28 @@
     <t>Goodbye!</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Location: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>The lands between</t>
-    </r>
+    <t>Velen-Bet-win1</t>
+  </si>
+  <si>
+    <t>I win! Young lady, you are so wise to bet me win, here is your coin</t>
+  </si>
+  <si>
+    <t>Velen-Bet-win2</t>
+  </si>
+  <si>
+    <t>(^_^)</t>
+  </si>
+  <si>
+    <t>Velen-Bet-loose1</t>
+  </si>
+  <si>
+    <t>I win! Young lady, you are so stupid to bet him win, you loose a coin!</t>
+  </si>
+  <si>
+    <t>Velen-Bet-loose2</t>
+  </si>
+  <si>
+    <t>(T_T)</t>
   </si>
   <si>
     <t>Melina-accord-1</t>
@@ -2290,17 +2294,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="34.7037037037037" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3796296296296" style="2" customWidth="1"/>
-    <col min="3" max="3" width="81.3055555555556" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3833333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="81.3083333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="59" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
@@ -2353,12 +2357,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" ht="14.25" spans="2:2">
       <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" ht="14.25" spans="2:2">
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
@@ -2373,7 +2377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="4:4">
+    <row r="16" ht="14.25" spans="4:4">
       <c r="D16" s="14" t="s">
         <v>15</v>
       </c>
@@ -2389,7 +2393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" ht="14.25" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -2403,7 +2407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" ht="14.25" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -2447,7 +2451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" ht="14.25" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -2458,12 +2462,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" ht="14.25" spans="4:4">
       <c r="D25" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" ht="14.25" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -2496,7 +2500,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" ht="14.25" spans="2:4">
       <c r="B29" s="13" t="s">
         <v>14</v>
       </c>
@@ -2507,7 +2511,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" ht="14.25" spans="2:4">
       <c r="B30" s="13" t="s">
         <v>14</v>
       </c>
@@ -2529,7 +2533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" ht="14.25" spans="2:4">
       <c r="B32" s="13" t="s">
         <v>14</v>
       </c>
@@ -2540,7 +2544,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" ht="14.25" spans="2:4">
       <c r="B33" s="13" t="s">
         <v>14</v>
       </c>
@@ -2562,7 +2566,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" ht="14.25" spans="2:4">
       <c r="B35" s="13" t="s">
         <v>14</v>
       </c>
@@ -2573,7 +2577,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" ht="14.25" spans="2:4">
       <c r="B36" s="13" t="s">
         <v>14</v>
       </c>
@@ -2642,7 +2646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" ht="14.25" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
@@ -2664,12 +2668,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" ht="14.25" spans="4:4">
       <c r="D45" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" ht="14.25" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>59</v>
       </c>
@@ -2732,7 +2736,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" ht="14.25" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>70</v>
       </c>
@@ -2743,7 +2747,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" ht="14.25" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>72</v>
       </c>
@@ -2754,7 +2758,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" ht="14.25" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>74</v>
       </c>
@@ -2765,7 +2769,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" ht="14.25" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>76</v>
       </c>
@@ -2776,7 +2780,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" ht="14.25" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>78</v>
       </c>
@@ -2787,7 +2791,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" ht="14.25" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>80</v>
       </c>
@@ -2798,7 +2802,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" ht="14.25" spans="2:4">
       <c r="B59" s="13" t="s">
         <v>14</v>
       </c>
@@ -2809,7 +2813,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" ht="14.25" spans="2:4">
       <c r="B60" s="13" t="s">
         <v>14</v>
       </c>
@@ -2820,7 +2824,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" ht="14.25" spans="2:4">
       <c r="B61" s="13" t="s">
         <v>14</v>
       </c>
@@ -2831,7 +2835,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" ht="14.25" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,7 +2857,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" ht="14.25" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>89</v>
       </c>
@@ -2875,7 +2879,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" ht="14.25" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>92</v>
       </c>
@@ -2886,7 +2890,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" ht="14.25" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>94</v>
       </c>
@@ -2900,7 +2904,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" ht="14.25" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>97</v>
       </c>
@@ -2922,7 +2926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" ht="14.25" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>101</v>
       </c>
@@ -2933,7 +2937,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" ht="14.25" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>103</v>
       </c>
@@ -2944,7 +2948,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" ht="14.25" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>105</v>
       </c>
@@ -2973,314 +2977,332 @@
       </c>
       <c r="C74" s="18"/>
     </row>
-    <row r="76" spans="4:4">
-      <c r="D76" s="14" t="s">
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="B75" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>111</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>11</v>
+        <v>115</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="C81" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="C83" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C84" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="C84" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>12</v>
+        <v>133</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>12</v>
+        <v>135</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>136</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>5</v>
+        <v>142</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>12</v>
+        <v>146</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>11</v>
+        <v>150</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>5</v>
+        <v>152</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>5</v>
@@ -3289,51 +3311,73 @@
         <v>164</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" ht="14.25" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B105" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>11</v>
+        <v>170</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>173</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>173</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25" spans="1:3">
+      <c r="A109" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25" spans="1:3">
+      <c r="A110" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/ChatConfig.xlsx
+++ b/ChatConfig.xlsx
@@ -2297,7 +2297,7 @@
   <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/ChatConfig.xlsx
+++ b/ChatConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="chat" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="189">
   <si>
     <t>id</t>
   </si>
@@ -255,16 +255,19 @@
     <t>Yes.</t>
   </si>
   <si>
+    <t>backyard-interact-2</t>
+  </si>
+  <si>
+    <t>Never give up!</t>
+  </si>
+  <si>
     <t>Restart the combat</t>
   </si>
   <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>backyard-interact-NO</t>
-  </si>
-  <si>
-    <t>Never give up!</t>
+    <t>backyard-win</t>
+  </si>
+  <si>
+    <t>Yeah you win!</t>
   </si>
   <si>
     <t>Location:Velen</t>
@@ -527,16 +530,16 @@
     <t>The two teleport to the starting point</t>
   </si>
   <si>
-    <t>Velen-jump-6</t>
+    <t>Velen-bet1</t>
   </si>
   <si>
     <t>Let's bet a golden token, Who do you think will win?</t>
   </si>
   <si>
-    <t>Velen-jump-7</t>
-  </si>
-  <si>
-    <t>Choose the token then tap on a hero to bet him win.</t>
+    <t>Velen-bet2</t>
+  </si>
+  <si>
+    <t>Tap on a hero to bet him can make a safe jump!</t>
   </si>
   <si>
     <t>Velen-won-1</t>
@@ -586,7 +589,30 @@
     <t>Velen-won-4</t>
   </si>
   <si>
-    <t>Goodbye!</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Goodbye</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>！</t>
+    </r>
+  </si>
+  <si>
+    <t>Velen-won-5</t>
+  </si>
+  <si>
+    <t>Goodbye！</t>
   </si>
   <si>
     <t>Velen-Bet-win1</t>
@@ -611,6 +637,21 @@
   </si>
   <si>
     <t>(T_T)</t>
+  </si>
+  <si>
+    <t>Velen-race-again1</t>
+  </si>
+  <si>
+    <t>Let race again!</t>
+  </si>
+  <si>
+    <t>Velen-race-again2</t>
+  </si>
+  <si>
+    <t>No problem, Who is the looser?</t>
+  </si>
+  <si>
+    <t>Location：The lands between</t>
   </si>
   <si>
     <t>Melina-accord-1</t>
@@ -1182,7 +1223,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1346,6 +1387,12 @@
       <name val="黑体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="45">
     <fill>
@@ -1613,7 +1660,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1631,32 +1678,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1771,7 +1792,7 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1801,7 +1822,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1819,28 +1840,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1849,10 +1870,10 @@
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1910,7 +1931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1955,18 +1976,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2294,17 +2303,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="34.7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3833333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="81.3083333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.7037037037037" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3796296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="81.3055555555556" style="2" customWidth="1"/>
     <col min="4" max="4" width="59" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
@@ -2357,12 +2366,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="2:2">
+    <row r="8" spans="2:2">
       <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="2:2">
+    <row r="9" spans="2:2">
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
@@ -2377,7 +2386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="4:4">
+    <row r="16" spans="4:4">
       <c r="D16" s="14" t="s">
         <v>15</v>
       </c>
@@ -2393,7 +2402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:4">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -2407,7 +2416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:3">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -2451,7 +2460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:3">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -2462,12 +2471,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="4:4">
+    <row r="25" spans="4:4">
       <c r="D25" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:3">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -2500,7 +2509,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="2:4">
+    <row r="29" spans="2:4">
       <c r="B29" s="13" t="s">
         <v>14</v>
       </c>
@@ -2511,7 +2520,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="2:4">
+    <row r="30" spans="2:4">
       <c r="B30" s="13" t="s">
         <v>14</v>
       </c>
@@ -2533,7 +2542,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="2:4">
+    <row r="32" spans="1:4">
+      <c r="A32" s="2"/>
       <c r="B32" s="13" t="s">
         <v>14</v>
       </c>
@@ -2544,7 +2554,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="2:4">
+    <row r="33" spans="2:4">
       <c r="B33" s="13" t="s">
         <v>14</v>
       </c>
@@ -2566,7 +2576,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="2:4">
+    <row r="35" spans="2:4">
       <c r="B35" s="13" t="s">
         <v>14</v>
       </c>
@@ -2577,7 +2587,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="2:4">
+    <row r="36" spans="2:4">
       <c r="B36" s="13" t="s">
         <v>14</v>
       </c>
@@ -2646,7 +2656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:3">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
@@ -2668,12 +2678,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="4:4">
+    <row r="45" spans="4:4">
       <c r="D45" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:3">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>59</v>
       </c>
@@ -2698,386 +2708,377 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="2:3">
       <c r="B48" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="2" t="s">
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="13" t="s">
-        <v>14</v>
+      <c r="B49" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>8</v>
+        <v>68</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" spans="1:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" spans="1:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" spans="2:4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
       <c r="B59" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="2:4">
+    <row r="60" spans="2:4">
       <c r="B60" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="61" ht="14.25" spans="2:4">
+    <row r="61" spans="2:4">
       <c r="B61" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" ht="14.25" spans="1:3">
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25" spans="1:4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25" spans="1:3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25" spans="1:3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25" spans="1:3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B73" s="8" t="s">
+      <c r="A73" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C73" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="17"/>
-      <c r="B74" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="18"/>
+      <c r="C74" s="14" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" spans="1:4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25" spans="1:3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" spans="1:3">
+        <v>120</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>11</v>
+        <v>122</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" spans="1:3">
-      <c r="A81" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25" spans="1:3">
-      <c r="A82" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="2" t="s">
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="C82"/>
+      <c r="D82" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:3">
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:3">
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>127</v>
       </c>
@@ -3088,7 +3089,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="85" ht="14.25" spans="1:3">
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>129</v>
       </c>
@@ -3099,98 +3100,98 @@
         <v>130</v>
       </c>
     </row>
-    <row r="86" ht="14.25" spans="1:3">
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="1:3">
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="1:4">
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D88" s="14" t="s">
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="89" ht="14.25" spans="1:3">
-      <c r="A89" s="1" t="s">
+      <c r="B89" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C89" s="14" t="s">
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="90" ht="14.25" spans="1:3">
-      <c r="A90" s="1" t="s">
+      <c r="B90" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B90" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90" s="14" t="s">
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="91" ht="14.25" spans="1:3">
-      <c r="A91" s="1" t="s">
+      <c r="B91" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C91" s="14" t="s">
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="92" ht="14.25" spans="1:3">
-      <c r="A92" s="1" t="s">
+      <c r="B92" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B92" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C92" s="14" t="s">
+      <c r="D92" s="14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="93" ht="14.25" spans="1:3">
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>5</v>
+      <c r="B93" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="94" ht="14.25" spans="1:3">
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>148</v>
       </c>
@@ -3201,7 +3202,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="95" ht="14.25" spans="1:3">
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>150</v>
       </c>
@@ -3212,7 +3213,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="96" ht="14.25" spans="1:3">
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>152</v>
       </c>
@@ -3223,73 +3224,73 @@
         <v>153</v>
       </c>
     </row>
-    <row r="97" ht="14.25" spans="1:3">
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B97" s="10" t="s">
-        <v>11</v>
+      <c r="B97" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="98" ht="14.25" spans="1:3">
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>5</v>
+      <c r="B98" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="99" ht="14.25" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>11</v>
+        <v>158</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="100" ht="14.25" spans="1:3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>5</v>
+        <v>160</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="101" ht="14.25" spans="1:3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="102" ht="14.25" spans="1:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="103" ht="14.25" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>165</v>
       </c>
@@ -3300,7 +3301,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" ht="14.25" spans="1:3">
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>167</v>
       </c>
@@ -3308,83 +3309,123 @@
         <v>5</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="105" ht="14.25" spans="1:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B105" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="106" ht="14.25" spans="1:3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="107" ht="14.25" spans="1:4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D107" s="14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="108" ht="14.25" spans="1:3">
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>11</v>
+      <c r="B108" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C108" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="109" ht="14.25" spans="1:3">
-      <c r="A109" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C109" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="110" ht="14.25" spans="1:3">
-      <c r="A110" s="1" t="s">
+      <c r="B110" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="B110" s="10" t="s">
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B111" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C110" s="14" t="s">
-        <v>180</v>
+      <c r="C111" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C73:C74"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/ChatConfig.xlsx
+++ b/ChatConfig.xlsx
@@ -2305,8 +2305,8 @@
   <sheetPr/>
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B83" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
